--- a/Team-Data/2007-08/2-8-2007-08.xlsx
+++ b/Team-Data/2007-08/2-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.468</v>
+        <v>0.478</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -687,7 +754,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
         <v>3.7</v>
@@ -696,7 +763,7 @@
         <v>11.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O2" t="n">
         <v>21.2</v>
@@ -708,13 +775,13 @@
         <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
         <v>21.5</v>
@@ -732,7 +799,7 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA2" t="n">
         <v>22</v>
@@ -747,22 +814,22 @@
         <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU2" t="n">
         <v>15</v>
       </c>
-      <c r="AU2" t="n">
-        <v>14</v>
-      </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,13 +874,13 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,7 +933,7 @@
         <v>35.7</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.474</v>
@@ -881,22 +948,22 @@
         <v>0.382</v>
       </c>
       <c r="O3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U3" t="n">
         <v>21.7</v>
@@ -908,22 +975,22 @@
         <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA3" t="n">
         <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="AD3" t="n">
         <v>28</v>
@@ -956,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -971,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -980,16 +1047,16 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36</v>
+        <v>0.367</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,28 +1115,28 @@
         <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
@@ -1081,10 +1148,10 @@
         <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
@@ -1093,28 +1160,28 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1126,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1135,16 +1202,16 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1162,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>16</v>
@@ -1171,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1320,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="AW5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,7 +1512,7 @@
         <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V6" t="n">
         <v>14.4</v>
@@ -1463,52 +1530,52 @@
         <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO6" t="n">
         <v>15</v>
       </c>
-      <c r="AO6" t="n">
-        <v>20</v>
-      </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1526,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1535,13 +1602,13 @@
         <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.694</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,25 +1661,25 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L7" t="n">
         <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P7" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.821</v>
@@ -1621,19 +1688,19 @@
         <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
@@ -1645,16 +1712,16 @@
         <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1675,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1684,28 +1751,28 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1723,10 +1790,10 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1758,91 +1825,91 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.612</v>
+        <v>0.604</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O8" t="n">
         <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1854,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>9</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.735</v>
+        <v>0.729</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,40 +2025,40 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M9" t="n">
         <v>15.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
@@ -2000,25 +2067,25 @@
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
         <v>3.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2054,16 +2121,16 @@
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -2081,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,19 +2297,19 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
@@ -2251,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -2382,31 +2449,31 @@
         <v>2.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
         <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2421,25 +2488,25 @@
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2597,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.34</v>
+        <v>0.326</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,19 +2753,19 @@
         <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
         <v>12.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
         <v>20.9</v>
@@ -2707,22 +2774,22 @@
         <v>26.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,7 +2798,7 @@
         <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
         <v>21.7</v>
@@ -2740,10 +2807,10 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
         <v>28</v>
@@ -2767,16 +2834,16 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
         <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2809,19 +2876,19 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC13" t="n">
         <v>24</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.653</v>
+        <v>0.646</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,10 +2935,10 @@
         <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.4</v>
@@ -2880,34 +2947,34 @@
         <v>19.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P14" t="n">
         <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
@@ -2919,19 +2986,19 @@
         <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2961,10 +3028,10 @@
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>17</v>
@@ -2973,7 +3040,7 @@
         <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.265</v>
+        <v>0.271</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>80.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.737</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
         <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
         <v>18</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3325,7 +3392,7 @@
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
         <v>14</v>
@@ -3349,19 +3416,19 @@
         <v>16</v>
       </c>
       <c r="AW16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,10 +3553,10 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
@@ -3531,19 +3598,19 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,10 +3663,10 @@
         <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
@@ -3608,34 +3675,34 @@
         <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
         <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V18" t="n">
         <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>3.9</v>
@@ -3647,16 +3714,16 @@
         <v>23.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3698,22 +3765,22 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42</v>
+        <v>0.408</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
         <v>15.7</v>
@@ -3820,25 +3887,25 @@
         <v>6.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,16 +3944,16 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -3898,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>10</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4062,10 +4129,10 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
@@ -4077,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S21" t="n">
         <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
         <v>18.3</v>
@@ -4181,7 +4248,7 @@
         <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4202,7 +4269,7 @@
         <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,37 +4281,37 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4256,28 +4323,28 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
       </c>
       <c r="BB21" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC21" t="n">
         <v>25</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.615</v>
+        <v>0.627</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,61 +4394,61 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
         <v>9.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
         <v>6.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,40 +4457,40 @@
         <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>27</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4432,19 +4499,19 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -4578,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4629,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.694</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.494</v>
       </c>
       <c r="L24" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.793</v>
+        <v>0.787</v>
       </c>
       <c r="R24" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S24" t="n">
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U24" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="V24" t="n">
         <v>13.8</v>
@@ -4733,22 +4800,22 @@
         <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4772,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
@@ -4781,13 +4848,13 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4811,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>24</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -4852,91 +4919,91 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.583</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K25" t="n">
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V25" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4948,19 +5015,19 @@
         <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
@@ -4969,13 +5036,13 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
@@ -4990,10 +5057,10 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5002,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.479</v>
+        <v>0.468</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>6.4</v>
@@ -5064,34 +5131,34 @@
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="Q26" t="n">
         <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S26" t="n">
         <v>29.6</v>
       </c>
       <c r="T26" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U26" t="n">
         <v>18.8</v>
       </c>
       <c r="V26" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
         <v>4</v>
@@ -5100,37 +5167,37 @@
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5151,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
@@ -5169,13 +5236,13 @@
         <v>30</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5184,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H27" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I27" t="n">
         <v>35.9</v>
       </c>
       <c r="J27" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.457</v>
       </c>
       <c r="L27" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M27" t="n">
         <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O27" t="n">
         <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
@@ -5270,34 +5337,34 @@
         <v>21.6</v>
       </c>
       <c r="V27" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5318,7 +5385,7 @@
         <v>11</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5330,10 +5397,10 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
@@ -5351,13 +5418,13 @@
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5366,7 +5433,7 @@
         <v>27</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,67 +5483,67 @@
         <v>37.5</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
         <v>4.3</v>
       </c>
       <c r="M28" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O28" t="n">
         <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S28" t="n">
         <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W28" t="n">
         <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
         <v>20.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7</v>
+        <v>-7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,19 +5555,19 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
         <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -5509,25 +5576,25 @@
         <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5539,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5580,91 +5647,91 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.542</v>
+        <v>0.553</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J29" t="n">
         <v>81.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.422</v>
+        <v>0.425</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P29" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U29" t="n">
         <v>23</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5673,7 +5740,7 @@
         <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -5682,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5703,22 +5770,22 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.627</v>
+        <v>0.64</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
         <v>0.491</v>
@@ -5789,55 +5856,55 @@
         <v>4.4</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
         <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>24.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
         <v>105.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
@@ -5873,10 +5940,10 @@
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5894,16 +5961,16 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.796</v>
@@ -5989,10 +6056,10 @@
         <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T31" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
         <v>19.1</v>
@@ -6001,7 +6068,7 @@
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
@@ -6019,10 +6086,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,28 +6101,28 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6064,13 +6131,13 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,19 +6146,19 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-8-2007-08</t>
+          <t>2008-02-08</t>
         </is>
       </c>
     </row>
